--- a/TestBPM/DataProvider/inputData.xlsx
+++ b/TestBPM/DataProvider/inputData.xlsx
@@ -635,6 +635,7 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="N4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -717,9 +718,7 @@
       <c r="M6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
+      <c r="N6"/>
     </row>
     <row customFormat="1" r="7" s="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">

--- a/TestBPM/DataProvider/inputData.xlsx
+++ b/TestBPM/DataProvider/inputData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="2850" windowWidth="14490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="2985"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId1" sheetId="2"/>
-    <sheet name="Hoja2" r:id="rId2" sheetId="3"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Mervin</t>
   </si>
@@ -107,15 +107,6 @@
     <t>Santiago del Esteros 2060</t>
   </si>
   <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>YAUYOS</t>
-  </si>
-  <si>
-    <t>COLONIA</t>
-  </si>
-  <si>
     <t>1168677091</t>
   </si>
   <si>
@@ -158,14 +149,70 @@
     <t>Santiago del Esteros 2062</t>
   </si>
   <si>
+    <t>LA LIBERTAD</t>
+  </si>
+  <si>
+    <t>JULCAN</t>
+  </si>
+  <si>
+    <t>CALAMARCA</t>
+  </si>
+  <si>
+    <t>LORETO</t>
+  </si>
+  <si>
+    <t>ALTO AMAZONAS</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>IDTarea</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Datos Cobertura</t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Aprobar</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>Dólares</t>
+  </si>
+  <si>
+    <t>Soles</t>
+  </si>
+  <si>
+    <t>Monto a Pagar</t>
+  </si>
+  <si>
+    <t>Valor del Cambio</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +261,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,30 +276,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -263,10 +333,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -301,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +494,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -433,13 +503,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -449,7 +519,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -458,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -467,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -477,12 +547,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -513,7 +583,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -532,7 +602,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -544,53 +614,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="20.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="28.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="17.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="15" max="16384" style="1" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="29.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
       <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -621,11 +691,9 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -677,11 +745,9 @@
       <c r="M5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" s="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -698,94 +764,190 @@
         <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="N6"/>
     </row>
-    <row customFormat="1" r="7" s="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row customFormat="1" r="8" s="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:M1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>